--- a/dist/files/lists.xlsx
+++ b/dist/files/lists.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="25215" windowHeight="17055" activeTab="0"/>
+    <workbookView windowWidth="21315" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="462">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +89,12 @@
     <t>file_name</t>
   </si>
   <si>
+    <t>file_size</t>
+  </si>
+  <si>
+    <t>file_extension</t>
+  </si>
+  <si>
     <t>H-HZ21-008759-1_211231万胜智能年报审计</t>
   </si>
   <si>
@@ -105,9 +110,15 @@
     <t>1_H-HZ21-008759-1_211231万胜智能年报审计</t>
   </si>
   <si>
+    <t>20241213-173205901-90399342-77534485-E7725098</t>
+  </si>
+  <si>
     <t>20241213-173205902-65279579-16259765-6E773684</t>
   </si>
   <si>
+    <t>20241213-173205902-65279579-16259765-6E773684.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-009713_221231万胜智能年报审计</t>
   </si>
   <si>
@@ -117,9 +128,15 @@
     <t>2_H-HZ22-009713_221231万胜智能年报审计</t>
   </si>
   <si>
+    <t>20241213-173205908-29202461-24267578-E7478641</t>
+  </si>
+  <si>
     <t>20241213-173205908-39780807-49511719-E7267124</t>
   </si>
   <si>
+    <t>20241213-173205908-39780807-49511719-E7267124.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-011836_231231万胜智能年报审计</t>
   </si>
   <si>
@@ -129,9 +146,15 @@
     <t>3_H-HZ23-011836_231231万胜智能年报审计</t>
   </si>
   <si>
+    <t>20241213-173205909-68680852-65159607-E7854357</t>
+  </si>
+  <si>
     <t>20241213-173205909-68122208-11843872-64410835</t>
   </si>
   <si>
+    <t>20241213-173205909-68122208-11843872-64410835.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-003172-1_211231众望布艺年报审计</t>
   </si>
   <si>
@@ -144,18 +167,30 @@
     <t>7_H-HZ22-003172-1_211231众望布艺年报审计</t>
   </si>
   <si>
+    <t>20241213-173205911-35126072-16835022-E7217227</t>
+  </si>
+  <si>
     <t>20241213-173205911-27989774-94239807-E7247783</t>
   </si>
   <si>
+    <t>20241213-173205911-27989774-94239807-E7247783.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-003175-1_211231众望布艺内控鉴证</t>
   </si>
   <si>
     <t>8_H-HZ22-003175-1_211231众望布艺内控鉴证</t>
   </si>
   <si>
+    <t>20241213-173205913-15371143-81790161-1E792114</t>
+  </si>
+  <si>
     <t>20241213-173205913-46585249-90081787-E7160092</t>
   </si>
   <si>
+    <t>20241213-173205913-46585249-90081787-E7160092.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-003515_221231众望布艺年报审计</t>
   </si>
   <si>
@@ -165,9 +200,15 @@
     <t>9_H-HZ23-003515_221231众望布艺年报审计</t>
   </si>
   <si>
+    <t>20241213-173205914-69641852-37884521-E7538930</t>
+  </si>
+  <si>
     <t>20241213-173205914-74804425-23956299-59265142</t>
   </si>
   <si>
+    <t>20241213-173205914-74804425-23956299-59265142.pdf</t>
+  </si>
+  <si>
     <t>H-HZ24-004972_231231众望布艺年报审计</t>
   </si>
   <si>
@@ -177,9 +218,15 @@
     <t>10_H-HZ24-004972_231231众望布艺年报审计</t>
   </si>
   <si>
+    <t>20241213-173205916-47200477-1232605E-71314194</t>
+  </si>
+  <si>
     <t>20241213-173205916-66020041-70417786-E7149099</t>
   </si>
   <si>
+    <t>20241213-173205916-66020041-70417786-E7149099.pdf</t>
+  </si>
+  <si>
     <t>H-HZ21-008792-1_211231大叶股份年报审计</t>
   </si>
   <si>
@@ -192,9 +239,15 @@
     <t>11_H-HZ21-008792-1_211231大叶股份年报审计</t>
   </si>
   <si>
+    <t>20241213-173205917-22338831-42471313-5E719247</t>
+  </si>
+  <si>
     <t>20241213-173205917-60517573-35662842-E7931444</t>
   </si>
   <si>
+    <t>20241213-173205917-60517573-35662842-E7931444.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-000720_221231大叶股份年报审计</t>
   </si>
   <si>
@@ -207,9 +260,15 @@
     <t>12_H-HZ23-000720_221231大叶股份年报审计</t>
   </si>
   <si>
+    <t>20241213-173205918-99493443-96591187-93979597</t>
+  </si>
+  <si>
     <t>20241213-173205918-16787350-17776489-3E786508</t>
   </si>
   <si>
+    <t>20241213-173205918-16787350-17776489-3E786508.pdf</t>
+  </si>
+  <si>
     <t>H-HZ24-003621_231231大叶股份年报审计</t>
   </si>
   <si>
@@ -219,9 +278,15 @@
     <t>13_H-HZ24-003621_231231大叶股份年报审计</t>
   </si>
   <si>
+    <t>20241213-173205920-18791627-88391113-3E775141</t>
+  </si>
+  <si>
     <t>20241213-173205921-86308258-77189636-E7492161</t>
   </si>
   <si>
+    <t>20241213-173205921-86308258-77189636-E7492161.pdf</t>
+  </si>
+  <si>
     <t>H-HZ21-008773-1_211231拱东医疗年报审计</t>
   </si>
   <si>
@@ -234,9 +299,15 @@
     <t>14_H-HZ21-008773-1_211231拱东医疗年报审计</t>
   </si>
   <si>
+    <t>20241213-173205922-24786800-14610290-5E725931</t>
+  </si>
+  <si>
     <t>20241213-173205922-78202164-17312622-E7164503</t>
   </si>
   <si>
+    <t>20241213-173205922-78202164-17312622-E7164503.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-009726_221231拱东医疗年报审计</t>
   </si>
   <si>
@@ -246,9 +317,15 @@
     <t>15_H-HZ22-009726_221231拱东医疗年报审计</t>
   </si>
   <si>
+    <t>20241213-173205923-41981905-69877624-5E744323</t>
+  </si>
+  <si>
     <t>20241213-173205924-92517209-05303955-E7387502</t>
   </si>
   <si>
+    <t>20241213-173205924-92517209-05303955-E7387502.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-011481_231231拱东医疗年报审计</t>
   </si>
   <si>
@@ -258,9 +335,15 @@
     <t>16_H-HZ23-011481_231231拱东医疗年报审计</t>
   </si>
   <si>
+    <t>20241213-173205925-94273126-1253357E-75234100</t>
+  </si>
+  <si>
     <t>20241213-173205925-96466112-13684082-E7857631</t>
   </si>
   <si>
+    <t>20241213-173205925-96466112-13684082-E7857631.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-011480_231231拱东医疗内控审计</t>
   </si>
   <si>
@@ -270,9 +353,15 @@
     <t>17_H-HZ23-011480_231231拱东医疗内控审计</t>
   </si>
   <si>
+    <t>20241213-173205926-92908823-49014282-E7729131</t>
+  </si>
+  <si>
     <t>20241213-173205926-51805537-93907165-5E745036</t>
   </si>
   <si>
+    <t>20241213-173205926-51805537-93907165-5E745036.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-001311-1_211231兴瑞科技年报审计</t>
   </si>
   <si>
@@ -291,6 +380,9 @@
     <t>20241213-173205928-23489922-28507995-6E779416</t>
   </si>
   <si>
+    <t>20241213-173205928-23489922-28507995-6E779416.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-009692_221231兴瑞科技年报审计</t>
   </si>
   <si>
@@ -306,6 +398,9 @@
     <t>20241213-173205930-48403316-73622131-E7692944</t>
   </si>
   <si>
+    <t>20241213-173205930-48403316-73622131-E7692944.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-010644_231231兴瑞科技年报审计</t>
   </si>
   <si>
@@ -321,6 +416,9 @@
     <t>20241213-173205931-39824783-80203247-81612640</t>
   </si>
   <si>
+    <t>20241213-173205931-39824783-80203247-81612640.pdf</t>
+  </si>
+  <si>
     <t>H-HZ22-001301-1_211231泛亚微透年报审计</t>
   </si>
   <si>
@@ -339,6 +437,9 @@
     <t>20241213-173205932-94990402-46009827-E7217701</t>
   </si>
   <si>
+    <t>20241213-173205932-94990402-46009827-E7217701.pdf</t>
+  </si>
+  <si>
     <t>H-HZ23-001805_221231泛亚微透年报审计</t>
   </si>
   <si>
@@ -354,6 +455,9 @@
     <t>20241213-173205934-84454709-29145813-E7437749</t>
   </si>
   <si>
+    <t>20241213-173205934-84454709-29145813-E7437749.pdf</t>
+  </si>
+  <si>
     <t>H-HZ24-003517_231231泛亚微透年报审计</t>
   </si>
   <si>
@@ -369,6 +473,9 @@
     <t>20241213-173205935-42629402-87590027-E7151916</t>
   </si>
   <si>
+    <t>20241213-173205935-42629402-87590027-E7151916.pdf</t>
+  </si>
+  <si>
     <t>H-HZ21-008604-1_211231浙江甬金科技年报审计</t>
   </si>
   <si>
@@ -387,6 +494,9 @@
     <t>20241213-173205937-71721035-24208069-E7562776</t>
   </si>
   <si>
+    <t>20241213-173205937-71721035-24208069-E7562776.pdf</t>
+  </si>
+  <si>
     <t>天健咨〔2023〕1-78号_221231烟草浙江省合并管理建议书</t>
   </si>
   <si>
@@ -405,6 +515,9 @@
     <t>20241213-173205939-10915446-28143310-5E721835</t>
   </si>
   <si>
+    <t>20241213-173205939-10915446-28143310-5E721835.pdf</t>
+  </si>
+  <si>
     <t>天健京咨〔2023〕348号_221231舟山市公司管理建议书</t>
   </si>
   <si>
@@ -423,6 +536,9 @@
     <t>20241213-173205940-58587288-85650635-E7828692</t>
   </si>
   <si>
+    <t>20241213-173205940-58587288-85650635-E7828692.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕5700号_221231新田公司年报审计</t>
   </si>
   <si>
@@ -441,6 +557,9 @@
     <t>20241213-173205941-88624036-31210327-E7460249</t>
   </si>
   <si>
+    <t>20241213-173205941-88624036-31210327-E7460249.pdf</t>
+  </si>
+  <si>
     <t>天健云审〔2023〕316号_云南大篷车汽车营地管理股份有限公司2022年报审计（合并）</t>
   </si>
   <si>
@@ -459,6 +578,9 @@
     <t>20241213-173205942-30278313-15994262-7E796416</t>
   </si>
   <si>
+    <t>20241213-173205942-30278313-15994262-7E796416.pdf</t>
+  </si>
+  <si>
     <t>天健京咨〔2023〕347号_221231进出口管理建议书</t>
   </si>
   <si>
@@ -477,6 +599,9 @@
     <t>20241213-173205944-55765151-97753906-E7241782</t>
   </si>
   <si>
+    <t>20241213-173205944-55765151-97753906-E7241782.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕2490号_221231甘肃广电爱购年报审计</t>
   </si>
   <si>
@@ -495,6 +620,9 @@
     <t>20241213-173205945-45713216-06636047-E7127106</t>
   </si>
   <si>
+    <t>20241213-173205945-45713216-06636047-E7127106.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕5699号_221231江华公司年报审计</t>
   </si>
   <si>
@@ -513,6 +641,9 @@
     <t>20241213-173205946-65223485-23139953-6E773572</t>
   </si>
   <si>
+    <t>20241213-173205946-65223485-23139953-6E773572.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕7-244号_221231国信“金汇宝”新西兰2号集合资产管理计划年报审计</t>
   </si>
   <si>
@@ -531,6 +662,9 @@
     <t>20241213-173205947-33862793-44558716-E7503859</t>
   </si>
   <si>
+    <t>20241213-173205947-33862793-44558716-E7503859.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕2752号_221231杭氧化医年报审计</t>
   </si>
   <si>
@@ -549,6 +683,9 @@
     <t>20241213-173205948-96504420-04203796-E7131364</t>
   </si>
   <si>
+    <t>20241213-173205948-96504420-04203796-E7131364.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕1593号_221231七台河润沐新能源年报审计</t>
   </si>
   <si>
@@ -567,6 +704,9 @@
     <t>20241213-173205948-27328729-62951664-75985944</t>
   </si>
   <si>
+    <t>20241213-173205948-27328729-62951664-75985944.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕5698号_221231江永公司年报审计</t>
   </si>
   <si>
@@ -585,6 +725,9 @@
     <t>20241213-173205949-93914717-43583679-E7822950</t>
   </si>
   <si>
+    <t>20241213-173205949-93914717-43583679-E7822950.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕5697号_221231双牌公司年报审计</t>
   </si>
   <si>
@@ -603,6 +746,9 @@
     <t>20241213-173205950-65776234-8651886E-79911144</t>
   </si>
   <si>
+    <t>20241213-173205950-65776234-8651886E-79911144.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕1-436号_22123绍兴上虞杭天年报审计</t>
   </si>
   <si>
@@ -621,6 +767,9 @@
     <t>20241213-173205950-48875743-15071106-E7791697</t>
   </si>
   <si>
+    <t>20241213-173205950-48875743-15071106-E7791697.pdf</t>
+  </si>
+  <si>
     <t>天健京咨〔2023〕548号_221231同方股份管理建议书</t>
   </si>
   <si>
@@ -639,6 +788,9 @@
     <t>20241213-173205951-77611917-25730896-E7380277</t>
   </si>
   <si>
+    <t>20241213-173205951-77611917-25730896-E7380277.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕5696号_221231宁远公司年报审计</t>
   </si>
   <si>
@@ -657,6 +809,9 @@
     <t>20241213-173205951-39311605-69190979-E7372990</t>
   </si>
   <si>
+    <t>20241213-173205951-39311605-69190979-E7372990.pdf</t>
+  </si>
+  <si>
     <t>天健咨〔2023〕34号_安邦护卫集团221231管理建议书</t>
   </si>
   <si>
@@ -675,6 +830,9 @@
     <t>20241213-173205952-49605309-96322632-76425606</t>
   </si>
   <si>
+    <t>20241213-173205952-49605309-96322632-76425606.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6331号_221231建德杭氧年报审计</t>
   </si>
   <si>
@@ -693,6 +851,9 @@
     <t>20241213-173205953-98600977-65922546-E7362105</t>
   </si>
   <si>
+    <t>20241213-173205953-98600977-65922546-E7362105.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕7-245号_221231国信“金汇宝”新西兰5号集合资产管理计划年报审计</t>
   </si>
   <si>
@@ -708,6 +869,9 @@
     <t>20241213-173205953-84513986-11068726-E7917390</t>
   </si>
   <si>
+    <t>20241213-173205953-84513986-11068726-E7917390.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6384号_221231萧山杭氧年报审计</t>
   </si>
   <si>
@@ -726,6 +890,9 @@
     <t>20241213-173205954-20058488-84582519-5E757732</t>
   </si>
   <si>
+    <t>20241213-173205954-20058488-84582519-5E757732.pdf</t>
+  </si>
+  <si>
     <t>天健京咨〔2023〕547号_221231同方股份境外财务资金管控情况管理建议书</t>
   </si>
   <si>
@@ -741,6 +908,9 @@
     <t>20241213-173205955-66539651-1554718E-71950731</t>
   </si>
   <si>
+    <t>20241213-173205955-66539651-1554718E-71950731.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕2941号_221231中服海南年报审计</t>
   </si>
   <si>
@@ -759,6 +929,9 @@
     <t>20241213-173205955-39062803-98368835-4E718723</t>
   </si>
   <si>
+    <t>20241213-173205955-39062803-98368835-4E718723.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕3255号_221231中服海南财务决算说明</t>
   </si>
   <si>
@@ -774,6 +947,9 @@
     <t>20241213-173205956-92668616-771698E7-17928630</t>
   </si>
   <si>
+    <t>20241213-173205956-92668616-771698E7-17928630.pdf</t>
+  </si>
+  <si>
     <t>天健粤审〔2023〕567号_221231CP国际财务决算专项审计</t>
   </si>
   <si>
@@ -792,6 +968,9 @@
     <t>20241213-173205956-40905654-43038940-48119722</t>
   </si>
   <si>
+    <t>20241213-173205956-40905654-43038940-48119722.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6330号_221231富阳杭氧年报审计</t>
   </si>
   <si>
@@ -810,6 +989,9 @@
     <t>20241213-173205957-11640971-89903259-3E734608</t>
   </si>
   <si>
+    <t>20241213-173205957-11640971-89903259-3E734608.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">天健粤咨〔2023〕106号_221231CP国际管理建议书 </t>
   </si>
   <si>
@@ -825,6 +1007,9 @@
     <t>20241213-173205958-64613312-48283386-E7567859</t>
   </si>
   <si>
+    <t>20241213-173205958-64613312-48283386-E7567859.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕8-316号_221231金科股份年度财务报表审计</t>
   </si>
   <si>
@@ -843,6 +1028,9 @@
     <t>20241213-173205958-31412124-63378906-24262666</t>
   </si>
   <si>
+    <t>20241213-173205958-31412124-63378906-24262666.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6385号_221231衢州杭氧年报审计</t>
   </si>
   <si>
@@ -861,6 +1049,9 @@
     <t>20241213-173205959-96826052-66571045-E7677223</t>
   </si>
   <si>
+    <t>20241213-173205959-96826052-66571045-E7677223.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕5089号_221231南都物业募集资金鉴证</t>
   </si>
   <si>
@@ -879,6 +1070,9 @@
     <t>20241213-173205959-75740438-69972229-E7856403</t>
   </si>
   <si>
+    <t>20241213-173205959-75740438-69972229-E7856403.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕5090号_221231南都物业关联方资金占用审计</t>
   </si>
   <si>
@@ -894,6 +1088,9 @@
     <t>20241213-173205960-50276875-49591064-5E768497</t>
   </si>
   <si>
+    <t>20241213-173205960-50276875-49591064-5E768497.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">天健粤审〔2023〕568号_221231CP国际审计情况说明书 </t>
   </si>
   <si>
@@ -909,6 +1106,9 @@
     <t>20241213-173205961-58989030-12275696-E7153240</t>
   </si>
   <si>
+    <t>20241213-173205961-58989030-12275696-E7153240.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6329号_221231衢州杭氧东港年报审计</t>
   </si>
   <si>
@@ -927,6 +1127,9 @@
     <t>20241213-173205961-47707569-59915161-E7317189</t>
   </si>
   <si>
+    <t>20241213-173205961-47707569-59915161-E7317189.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕5091号_221231南都物业内控审计</t>
   </si>
   <si>
@@ -942,6 +1145,9 @@
     <t>20241213-173205962-21131700-27732849-E7812960</t>
   </si>
   <si>
+    <t>20241213-173205962-21131700-27732849-E7812960.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕3084号_20221231巴通万年报审计</t>
   </si>
   <si>
@@ -960,6 +1166,9 @@
     <t>20241213-173205963-52615976-33361816-4E757212</t>
   </si>
   <si>
+    <t>20241213-173205963-52615976-33361816-4E757212.pdf</t>
+  </si>
+  <si>
     <t>天健粤审〔2023〕566号_221231CP国际年报审计</t>
   </si>
   <si>
@@ -975,6 +1184,9 @@
     <t>20241213-173205963-13028818-36891174-3E794325</t>
   </si>
   <si>
+    <t>20241213-173205963-13028818-36891174-3E794325.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕1691号_20221231供应链北京年报审计</t>
   </si>
   <si>
@@ -993,6 +1205,9 @@
     <t>20241213-173205964-11750257-01522827-1E773160</t>
   </si>
   <si>
+    <t>20241213-173205964-11750257-01522827-1E773160.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕5182号_221231科顺股份业绩承诺报告</t>
   </si>
   <si>
@@ -1011,6 +1226,9 @@
     <t>20241213-173205964-14146512-74681091-3E721491</t>
   </si>
   <si>
+    <t>20241213-173205964-14146512-74681091-3E721491.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕3-305号_221231利扬芯片年报审计</t>
   </si>
   <si>
@@ -1029,6 +1247,9 @@
     <t>20241213-173205965-71470278-50151062-E7746898</t>
   </si>
   <si>
+    <t>20241213-173205965-71470278-50151062-E7746898.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕1854号_20221231城市发展年报审计</t>
   </si>
   <si>
@@ -1047,6 +1268,9 @@
     <t>20241213-173205965-82933306-69403076-86868524</t>
   </si>
   <si>
+    <t>20241213-173205965-82933306-69403076-86868524.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕1853号_20221231贸易海南年报审计</t>
   </si>
   <si>
@@ -1065,6 +1289,9 @@
     <t>20241213-173205966-25693070-88851928-7E732046</t>
   </si>
   <si>
+    <t>20241213-173205966-25693070-88851928-7E732046.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕8-318号_221231金科股份关联方资金占用报告</t>
   </si>
   <si>
@@ -1080,6 +1307,9 @@
     <t>20241213-173205966-20159965-75355529-8E744037</t>
   </si>
   <si>
+    <t>20241213-173205966-20159965-75355529-8E744037.pdf</t>
+  </si>
+  <si>
     <t>天健京审〔2023〕1852号_20221231葛洲坝贸易香港年报审计</t>
   </si>
   <si>
@@ -1098,6 +1328,9 @@
     <t>20241213-173205967-57465738-05809021-E7969718</t>
   </si>
   <si>
+    <t>20241213-173205967-57465738-05809021-E7969718.pdf</t>
+  </si>
+  <si>
     <t>天健鄂审〔2023〕77号_221231咨询设计股份年报</t>
   </si>
   <si>
@@ -1116,6 +1349,9 @@
     <t>20241213-173205967-11272799-96871948-2E760703</t>
   </si>
   <si>
+    <t>20241213-173205967-11272799-96871948-2E760703.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕8-216号_221231旺成科技关联资金占用报告</t>
   </si>
   <si>
@@ -1134,6 +1370,9 @@
     <t>20241213-173205968-55150753-25965881-E7437285</t>
   </si>
   <si>
+    <t>20241213-173205968-55150753-25965881-E7437285.pdf</t>
+  </si>
+  <si>
     <t>天健审〔2023〕6328号_221231衢州杭氧深蓝年报审计</t>
   </si>
   <si>
@@ -1152,6 +1391,9 @@
     <t>20241213-173205968-21864080-42907715-E7228252</t>
   </si>
   <si>
+    <t>20241213-173205968-21864080-42907715-E7228252.pdf</t>
+  </si>
+  <si>
     <t>天健鄂审〔2023〕254号_221231城规院年报审计</t>
   </si>
   <si>
@@ -1164,247 +1406,10 @@
     <t>45849+天健鄂审〔2023〕254号+221231城规院年报审计.pdf</t>
   </si>
   <si>
+    <t>20241213-173205969-91089975-83389282-E7112767</t>
+  </si>
+  <si>
     <t>20241213-173205969-86175566-91169739-E7725717</t>
-  </si>
-  <si>
-    <t>20241213-173205901-90399342-77534485-E7725098</t>
-  </si>
-  <si>
-    <t>20241213-173205902-65279579-16259765-6E773684.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205908-29202461-24267578-E7478641</t>
-  </si>
-  <si>
-    <t>20241213-173205908-39780807-49511719-E7267124.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205909-68680852-65159607-E7854357</t>
-  </si>
-  <si>
-    <t>20241213-173205909-68122208-11843872-64410835.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205911-35126072-16835022-E7217227</t>
-  </si>
-  <si>
-    <t>20241213-173205911-27989774-94239807-E7247783.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205913-15371143-81790161-1E792114</t>
-  </si>
-  <si>
-    <t>20241213-173205913-46585249-90081787-E7160092.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205914-69641852-37884521-E7538930</t>
-  </si>
-  <si>
-    <t>20241213-173205914-74804425-23956299-59265142.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205916-47200477-1232605E-71314194</t>
-  </si>
-  <si>
-    <t>20241213-173205916-66020041-70417786-E7149099.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205917-22338831-42471313-5E719247</t>
-  </si>
-  <si>
-    <t>20241213-173205917-60517573-35662842-E7931444.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205918-99493443-96591187-93979597</t>
-  </si>
-  <si>
-    <t>20241213-173205918-16787350-17776489-3E786508.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205920-18791627-88391113-3E775141</t>
-  </si>
-  <si>
-    <t>20241213-173205921-86308258-77189636-E7492161.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205922-24786800-14610290-5E725931</t>
-  </si>
-  <si>
-    <t>20241213-173205922-78202164-17312622-E7164503.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205923-41981905-69877624-5E744323</t>
-  </si>
-  <si>
-    <t>20241213-173205924-92517209-05303955-E7387502.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205925-94273126-1253357E-75234100</t>
-  </si>
-  <si>
-    <t>20241213-173205925-96466112-13684082-E7857631.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205926-92908823-49014282-E7729131</t>
-  </si>
-  <si>
-    <t>20241213-173205926-51805537-93907165-5E745036.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205928-23489922-28507995-6E779416.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205930-48403316-73622131-E7692944.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205931-39824783-80203247-81612640.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205932-94990402-46009827-E7217701.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205934-84454709-29145813-E7437749.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205935-42629402-87590027-E7151916.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205937-71721035-24208069-E7562776.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205939-10915446-28143310-5E721835.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205940-58587288-85650635-E7828692.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205941-88624036-31210327-E7460249.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205942-30278313-15994262-7E796416.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205944-55765151-97753906-E7241782.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205945-45713216-06636047-E7127106.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205946-65223485-23139953-6E773572.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205947-33862793-44558716-E7503859.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205948-96504420-04203796-E7131364.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205948-27328729-62951664-75985944.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205949-93914717-43583679-E7822950.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205950-65776234-8651886E-79911144.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205950-48875743-15071106-E7791697.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205951-77611917-25730896-E7380277.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205951-39311605-69190979-E7372990.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205952-49605309-96322632-76425606.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205953-98600977-65922546-E7362105.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205953-84513986-11068726-E7917390.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205954-20058488-84582519-5E757732.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205955-66539651-1554718E-71950731.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205955-39062803-98368835-4E718723.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205956-92668616-771698E7-17928630.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205956-40905654-43038940-48119722.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205957-11640971-89903259-3E734608.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205958-64613312-48283386-E7567859.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205958-31412124-63378906-24262666.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205959-96826052-66571045-E7677223.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205959-75740438-69972229-E7856403.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205960-50276875-49591064-5E768497.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205961-58989030-12275696-E7153240.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205961-47707569-59915161-E7317189.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205962-21131700-27732849-E7812960.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205963-52615976-33361816-4E757212.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205963-13028818-36891174-3E794325.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205964-11750257-01522827-1E773160.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205964-14146512-74681091-3E721491.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205965-71470278-50151062-E7746898.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205965-82933306-69403076-86868524.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205966-25693070-88851928-7E732046.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205966-20159965-75355529-8E744037.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205967-57465738-05809021-E7969718.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205967-11272799-96871948-2E760703.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205968-55150753-25965881-E7437285.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205968-21864080-42907715-E7228252.pdf</t>
-  </si>
-  <si>
-    <t>20241213-173205969-91089975-83389282-E7112767</t>
   </si>
   <si>
     <t>20241213-173205969-86175566-91169739-E7725717.pdf</t>
@@ -1420,45 +1425,47 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1466,7 +1473,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1474,7 +1481,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,7 +1489,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1490,7 +1497,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1498,14 +1505,14 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1513,7 +1520,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,7 +1528,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1529,14 +1536,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1544,41 +1551,46 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1791,6 +1803,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1799,6 +1812,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1807,6 +1821,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980002641678"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1821,6 +1836,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1835,6 +1851,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1849,6 +1866,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1857,6 +1875,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1867,377 +1886,131 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="138">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="54">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="千位分隔" xfId="90"/>
-    <cellStyle name="货币" xfId="91"/>
-    <cellStyle name="百分比" xfId="92"/>
-    <cellStyle name="千位分隔[0]" xfId="93"/>
-    <cellStyle name="货币[0]" xfId="94"/>
-    <cellStyle name="超链接" xfId="95"/>
-    <cellStyle name="已访问的超链接" xfId="96"/>
-    <cellStyle name="注释" xfId="97"/>
-    <cellStyle name="警告文本" xfId="98"/>
-    <cellStyle name="标题" xfId="99"/>
-    <cellStyle name="解释性文本" xfId="100"/>
-    <cellStyle name="标题 1" xfId="101"/>
-    <cellStyle name="标题 2" xfId="102"/>
-    <cellStyle name="标题 3" xfId="103"/>
-    <cellStyle name="标题 4" xfId="104"/>
-    <cellStyle name="输入" xfId="105"/>
-    <cellStyle name="输出" xfId="106"/>
-    <cellStyle name="计算" xfId="107"/>
-    <cellStyle name="检查单元格" xfId="108"/>
-    <cellStyle name="链接单元格" xfId="109"/>
-    <cellStyle name="汇总" xfId="110"/>
-    <cellStyle name="好" xfId="111"/>
-    <cellStyle name="差" xfId="112"/>
-    <cellStyle name="适中" xfId="113"/>
-    <cellStyle name="强调文字颜色 1" xfId="114"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="115"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="116"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="117"/>
-    <cellStyle name="强调文字颜色 2" xfId="118"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="119"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="120"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="121"/>
-    <cellStyle name="强调文字颜色 3" xfId="122"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="123"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="124"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="125"/>
-    <cellStyle name="强调文字颜色 4" xfId="126"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="127"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="128"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="129"/>
-    <cellStyle name="强调文字颜色 5" xfId="130"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="131"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="132"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="133"/>
-    <cellStyle name="强调文字颜色 6" xfId="134"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="135"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="136"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="137"/>
+  <cellStyles count="55">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="49"/>
+    <cellStyle name="Percent" xfId="50"/>
+    <cellStyle name="Currency" xfId="51"/>
+    <cellStyle name="Currency [0]" xfId="52"/>
+    <cellStyle name="Comma" xfId="53"/>
+    <cellStyle name="Comma [0]" xfId="54"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -2502,23 +2275,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:T67"/>
+  <sheetPr/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="M1">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" style="0" customWidth="1"/>
-    <col min="9" max="9" width="17.00390625" style="0" customWidth="1"/>
-    <col min="16" max="16" width="17.00390625" style="0" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" style="0" customWidth="1"/>
-    <col min="19" max="19" width="73.421875" style="0" customWidth="1"/>
-    <col min="20" max="20" width="20.28125" style="0" customWidth="1"/>
+    <col min="2" max="2" width="57.2571428571429" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="18" max="18" width="68.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="73.4190476190476" customWidth="1"/>
+    <col min="20" max="20" width="20.2857142857143" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2579,22 +2354,28 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2612,7 +2393,7 @@
         <v>100859</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2624,33 +2405,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>379</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="T2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2668,7 +2449,7 @@
         <v>100859</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2680,33 +2461,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>381</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2724,7 +2505,7 @@
         <v>100859</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2736,33 +2517,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2780,7 +2561,7 @@
         <v>100859</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2792,33 +2573,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>385</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2836,7 +2617,7 @@
         <v>100859</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2848,33 +2629,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>387</v>
+        <v>51</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2892,7 +2673,7 @@
         <v>100859</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2904,33 +2685,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>389</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2948,7 +2729,7 @@
         <v>100859</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -2960,33 +2741,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="R8" t="s">
-        <v>391</v>
+        <v>63</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="T8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -3004,7 +2785,7 @@
         <v>100859</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -3016,33 +2797,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>393</v>
+        <v>70</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -3054,13 +2835,13 @@
         <v>45607.9999884259</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K10">
         <v>100859</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -3072,33 +2853,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3116,7 +2897,7 @@
         <v>100859</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -3128,33 +2909,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q11" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s">
-        <v>397</v>
+        <v>83</v>
       </c>
       <c r="S11" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="T11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3172,7 +2953,7 @@
         <v>100859</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -3184,33 +2965,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q12" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="R12" t="s">
-        <v>399</v>
+        <v>90</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -3228,7 +3009,7 @@
         <v>100859</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3240,33 +3021,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="R13" t="s">
-        <v>401</v>
+        <v>96</v>
       </c>
       <c r="S13" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="T13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -3284,7 +3065,7 @@
         <v>100859</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3296,33 +3077,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q14" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="R14" t="s">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="S14" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="T14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -3340,7 +3121,7 @@
         <v>100859</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3352,33 +3133,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="R15" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="S15" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="T15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -3396,7 +3177,7 @@
         <v>100859</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3408,33 +3189,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q16" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="R16" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S16" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="T16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -3452,7 +3233,7 @@
         <v>100859</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3464,33 +3245,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="R17" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="S17" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="T17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -3508,7 +3289,7 @@
         <v>100859</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3520,33 +3301,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q18" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="R18" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="T18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -3564,7 +3345,7 @@
         <v>100859</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -3576,33 +3357,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="T19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -3620,7 +3401,7 @@
         <v>100859</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -3632,33 +3413,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="R20" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="S20" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="T20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -3676,7 +3457,7 @@
         <v>100859</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -3688,33 +3469,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="R21" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="S21" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="T21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -3732,7 +3513,7 @@
         <v>100859</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -3744,33 +3525,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="R22" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="S22" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="T22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -3788,7 +3569,7 @@
         <v>100859</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3800,33 +3581,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q23" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="R23" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="T23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -3844,7 +3625,7 @@
         <v>100859</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -3856,33 +3637,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q24" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="R24" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="S24" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="T24" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -3900,7 +3681,7 @@
         <v>100859</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -3912,33 +3693,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q25" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="R25" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="S25" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="T25" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -3956,7 +3737,7 @@
         <v>100859</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3968,33 +3749,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q26" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="R26" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="S26" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="T26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -4012,7 +3793,7 @@
         <v>100859</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4024,33 +3805,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q27" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="R27" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="S27" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="T27" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -4068,7 +3849,7 @@
         <v>100859</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -4080,33 +3861,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q28" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="R28" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="S28" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="T28" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -4124,7 +3905,7 @@
         <v>100859</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -4136,33 +3917,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q29" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="R29" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="S29" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="T29" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="C30">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -4180,7 +3961,7 @@
         <v>100859</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -4192,33 +3973,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q30" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="R30" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="S30" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="T30" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -4236,7 +4017,7 @@
         <v>100859</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -4248,33 +4029,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q31" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="R31" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="S31" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="T31" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -4292,7 +4073,7 @@
         <v>100859</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -4304,33 +4085,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q32" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="R32" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="S32" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="T32" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -4348,7 +4129,7 @@
         <v>100859</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -4360,33 +4141,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q33" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="R33" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="S33" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="T33" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -4404,7 +4185,7 @@
         <v>100859</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4416,33 +4197,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q34" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="R34" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="S34" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="T34" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4460,7 +4241,7 @@
         <v>100859</v>
       </c>
       <c r="M35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -4472,33 +4253,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q35" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="R35" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="S35" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="T35" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -4516,7 +4297,7 @@
         <v>100859</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4528,33 +4309,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q36" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="R36" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="S36" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="T36" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -4572,7 +4353,7 @@
         <v>100859</v>
       </c>
       <c r="M37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4584,33 +4365,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q37" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="R37" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="S37" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="T37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4628,7 +4409,7 @@
         <v>100859</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4640,33 +4421,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q38" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="R38" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="S38" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="T38" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -4684,7 +4465,7 @@
         <v>100859</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -4696,33 +4477,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q39" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="R39" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="S39" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="T39" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4740,7 +4521,7 @@
         <v>100859</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -4752,33 +4533,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q40" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="R40" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="S40" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="T40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -4796,7 +4577,7 @@
         <v>100859</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -4808,33 +4589,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q41" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="R41" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="S41" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="T41" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4852,7 +4633,7 @@
         <v>100859</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -4864,33 +4645,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q42" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="R42" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="S42" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="T42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="E43" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4908,7 +4689,7 @@
         <v>100859</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -4920,33 +4701,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q43" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="R43" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="S43" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="T43" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="E44" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4964,7 +4745,7 @@
         <v>100859</v>
       </c>
       <c r="M44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -4976,33 +4757,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q44" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="R44" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="S44" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="T44" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>309</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -5020,7 +4801,7 @@
         <v>100859</v>
       </c>
       <c r="M45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -5032,33 +4813,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q45" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="R45" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="S45" t="s">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="T45" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -5076,7 +4857,7 @@
         <v>100859</v>
       </c>
       <c r="M46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -5088,33 +4869,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q46" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="R46" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="S46" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="T46" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E47" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5132,7 +4913,7 @@
         <v>100859</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -5144,33 +4925,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q47" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="R47" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="S47" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="T47" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="15">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="E48" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5188,7 +4969,7 @@
         <v>100859</v>
       </c>
       <c r="M48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -5200,33 +4981,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q48" t="s">
-        <v>268</v>
+        <v>330</v>
       </c>
       <c r="R48" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="S48" t="s">
-        <v>270</v>
+        <v>332</v>
       </c>
       <c r="T48" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C49">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5244,7 +5025,7 @@
         <v>100859</v>
       </c>
       <c r="M49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -5256,33 +5037,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q49" t="s">
-        <v>274</v>
+        <v>337</v>
       </c>
       <c r="R49" t="s">
-        <v>275</v>
+        <v>338</v>
       </c>
       <c r="S49" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="T49" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="15">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>341</v>
       </c>
       <c r="C50">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5300,7 +5081,7 @@
         <v>100859</v>
       </c>
       <c r="M50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5312,33 +5093,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q50" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="R50" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="S50" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="T50" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="15">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="E51" t="s">
-        <v>284</v>
+        <v>349</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5356,7 +5137,7 @@
         <v>100859</v>
       </c>
       <c r="M51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -5368,33 +5149,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q51" t="s">
-        <v>285</v>
+        <v>350</v>
       </c>
       <c r="R51" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
       <c r="S51" t="s">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="T51" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="C52">
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5412,7 +5193,7 @@
         <v>100859</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -5424,33 +5205,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q52" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="R52" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="S52" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="T52" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>360</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5468,7 +5249,7 @@
         <v>100859</v>
       </c>
       <c r="M53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -5480,33 +5261,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q53" t="s">
-        <v>296</v>
+        <v>363</v>
       </c>
       <c r="R53" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="S53" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="T53" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="C54">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5524,7 +5305,7 @@
         <v>100859</v>
       </c>
       <c r="M54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -5536,33 +5317,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q54" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
       <c r="R54" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="S54" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="T54" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="E55" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5580,7 +5361,7 @@
         <v>100859</v>
       </c>
       <c r="M55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -5592,33 +5373,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q55" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="R55" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="S55" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="T55" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="15">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>308</v>
       </c>
       <c r="E56" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5636,7 +5417,7 @@
         <v>100859</v>
       </c>
       <c r="M56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5648,33 +5429,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q56" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="R56" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="S56" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="T56" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="15">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="C57">
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5692,7 +5473,7 @@
         <v>100859</v>
       </c>
       <c r="M57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -5704,33 +5485,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q57" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="R57" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="S57" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="T57" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="E58" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5748,7 +5529,7 @@
         <v>100859</v>
       </c>
       <c r="M58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -5760,33 +5541,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q58" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="R58" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="S58" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="T58" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
       <c r="C59">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="E59" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5804,7 +5585,7 @@
         <v>100859</v>
       </c>
       <c r="M59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -5816,33 +5597,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q59" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="R59" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="S59" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="T59" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="C60">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="E60" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5860,7 +5641,7 @@
         <v>100859</v>
       </c>
       <c r="M60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -5872,33 +5653,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q60" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="R60" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="S60" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="T60" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="15">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="C61">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="E61" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5916,7 +5697,7 @@
         <v>100859</v>
       </c>
       <c r="M61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -5928,33 +5709,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q61" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="R61" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="S61" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="T61" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="15">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="E62" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5972,7 +5753,7 @@
         <v>100859</v>
       </c>
       <c r="M62" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -5984,33 +5765,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q62" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="R62" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="S62" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="T62" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="C63">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="E63" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6028,7 +5809,7 @@
         <v>100859</v>
       </c>
       <c r="M63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -6040,33 +5821,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q63" t="s">
-        <v>353</v>
+        <v>430</v>
       </c>
       <c r="R63" t="s">
-        <v>354</v>
+        <v>431</v>
       </c>
       <c r="S63" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
       <c r="T63" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -6084,7 +5865,7 @@
         <v>100859</v>
       </c>
       <c r="M64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -6096,33 +5877,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q64" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
       <c r="R64" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
       <c r="S64" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="T64" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="15">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="E65" t="s">
-        <v>364</v>
+        <v>443</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6140,7 +5921,7 @@
         <v>100859</v>
       </c>
       <c r="M65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -6152,33 +5933,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q65" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="R65" t="s">
-        <v>366</v>
+        <v>445</v>
       </c>
       <c r="S65" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="T65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>368</v>
+        <v>448</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>449</v>
       </c>
       <c r="E66" t="s">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6196,7 +5977,7 @@
         <v>100859</v>
       </c>
       <c r="M66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -6208,33 +5989,33 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q66" t="s">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="R66" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="S66" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="T66" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="15">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="E67" t="s">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6252,7 +6033,7 @@
         <v>100859</v>
       </c>
       <c r="M67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -6264,22 +6045,21 @@
         <v>45607.9999884259</v>
       </c>
       <c r="Q67" t="s">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="R67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="S67" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="T67" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>